--- a/Litecoin.xlsx
+++ b/Litecoin.xlsx
@@ -396,7 +396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1798"/>
+  <dimension ref="A1:H1819"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45860,19 +45860,19 @@
         <v>59.139999</v>
       </c>
       <c r="C1749" t="n">
-        <v>59.200001</v>
+        <v>60.080002</v>
       </c>
       <c r="D1749" t="n">
         <v>55.080002</v>
       </c>
       <c r="E1749" t="n">
-        <v>55.34</v>
+        <v>57.91</v>
       </c>
       <c r="F1749" t="n">
-        <v>55.34</v>
+        <v>57.91</v>
       </c>
       <c r="G1749" t="n">
-        <v>14216190</v>
+        <v>27585466</v>
       </c>
       <c r="H1749" t="s">
         <v>8</v>
@@ -45883,22 +45883,22 @@
         <v>43323</v>
       </c>
       <c r="B1750" t="n">
-        <v>55.34</v>
+        <v>57.91</v>
       </c>
       <c r="C1750" t="n">
-        <v>55.34</v>
+        <v>61.689999</v>
       </c>
       <c r="D1750" t="n">
-        <v>55.34</v>
+        <v>57.349998</v>
       </c>
       <c r="E1750" t="n">
-        <v>55.34</v>
+        <v>59.369999</v>
       </c>
       <c r="F1750" t="n">
-        <v>55.34</v>
+        <v>59.369999</v>
       </c>
       <c r="G1750" t="n">
-        <v>0</v>
+        <v>17851075</v>
       </c>
       <c r="H1750" t="s">
         <v>8</v>
@@ -47128,27 +47128,573 @@
     </row>
     <row r="1798" spans="1:8">
       <c r="A1798" s="2" t="n">
-        <v>43372</v>
+        <v>43371</v>
       </c>
       <c r="B1798" t="n">
         <v>61.84</v>
       </c>
       <c r="C1798" t="n">
-        <v>61.849998</v>
+        <v>62.259998</v>
       </c>
       <c r="D1798" t="n">
         <v>58.970001</v>
       </c>
       <c r="E1798" t="n">
-        <v>61.25</v>
+        <v>61.540001</v>
       </c>
       <c r="F1798" t="n">
-        <v>61.25</v>
+        <v>61.540001</v>
       </c>
       <c r="G1798" t="n">
-        <v>9758054</v>
+        <v>16457456</v>
       </c>
       <c r="H1798" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:8">
+      <c r="A1799" s="2" t="n">
+        <v>43372</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>61.540001</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>63.029999</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>59.82</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>61.099998</v>
+      </c>
+      <c r="F1799" t="n">
+        <v>61.099998</v>
+      </c>
+      <c r="G1799" t="n">
+        <v>22234678</v>
+      </c>
+      <c r="H1799" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:8">
+      <c r="A1800" s="2" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>61.099998</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>62.060001</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>59.32</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>60.279999</v>
+      </c>
+      <c r="F1800" t="n">
+        <v>60.279999</v>
+      </c>
+      <c r="G1800" t="n">
+        <v>16058989</v>
+      </c>
+      <c r="H1800" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:8">
+      <c r="A1801" s="2" t="n">
+        <v>43374</v>
+      </c>
+      <c r="B1801" t="n">
+        <v>60.279999</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>61.509998</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>58.860001</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>59.34</v>
+      </c>
+      <c r="F1801" t="n">
+        <v>59.34</v>
+      </c>
+      <c r="G1801" t="n">
+        <v>14348240</v>
+      </c>
+      <c r="H1801" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:8">
+      <c r="A1802" s="2" t="n">
+        <v>43375</v>
+      </c>
+      <c r="B1802" t="n">
+        <v>59.34</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>59.419998</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>56.529999</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>57.360001</v>
+      </c>
+      <c r="F1802" t="n">
+        <v>57.360001</v>
+      </c>
+      <c r="G1802" t="n">
+        <v>16982307</v>
+      </c>
+      <c r="H1802" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:8">
+      <c r="A1803" s="2" t="n">
+        <v>43376</v>
+      </c>
+      <c r="B1803" t="n">
+        <v>57.360001</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>59.110001</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>57.25</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>58.139999</v>
+      </c>
+      <c r="F1803" t="n">
+        <v>58.139999</v>
+      </c>
+      <c r="G1803" t="n">
+        <v>12834825</v>
+      </c>
+      <c r="H1803" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:8">
+      <c r="A1804" s="2" t="n">
+        <v>43377</v>
+      </c>
+      <c r="B1804" t="n">
+        <v>58.139999</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>59.619999</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>57.439999</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>58.75</v>
+      </c>
+      <c r="F1804" t="n">
+        <v>58.75</v>
+      </c>
+      <c r="G1804" t="n">
+        <v>11139571</v>
+      </c>
+      <c r="H1804" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:8">
+      <c r="A1805" s="2" t="n">
+        <v>43378</v>
+      </c>
+      <c r="B1805" t="n">
+        <v>58.75</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>58.900002</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>56.849998</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>57.82</v>
+      </c>
+      <c r="F1805" t="n">
+        <v>57.82</v>
+      </c>
+      <c r="G1805" t="n">
+        <v>9412964</v>
+      </c>
+      <c r="H1805" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:8">
+      <c r="A1806" s="2" t="n">
+        <v>43379</v>
+      </c>
+      <c r="B1806" t="n">
+        <v>57.82</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>58.419998</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>56.900002</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>58.09</v>
+      </c>
+      <c r="F1806" t="n">
+        <v>58.09</v>
+      </c>
+      <c r="G1806" t="n">
+        <v>8527372</v>
+      </c>
+      <c r="H1806" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:8">
+      <c r="A1807" s="2" t="n">
+        <v>43380</v>
+      </c>
+      <c r="B1807" t="n">
+        <v>58.09</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>59.98</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>57.529999</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>59.439999</v>
+      </c>
+      <c r="F1807" t="n">
+        <v>59.439999</v>
+      </c>
+      <c r="G1807" t="n">
+        <v>14795858</v>
+      </c>
+      <c r="H1807" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:8">
+      <c r="A1808" s="2" t="n">
+        <v>43381</v>
+      </c>
+      <c r="B1808" t="n">
+        <v>59.439999</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>59.599998</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>58.189999</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>58.68</v>
+      </c>
+      <c r="F1808" t="n">
+        <v>58.68</v>
+      </c>
+      <c r="G1808" t="n">
+        <v>7870889</v>
+      </c>
+      <c r="H1808" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:8">
+      <c r="A1809" s="2" t="n">
+        <v>43382</v>
+      </c>
+      <c r="B1809" t="n">
+        <v>58.68</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>58.700001</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>57.060001</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>57.82</v>
+      </c>
+      <c r="F1809" t="n">
+        <v>57.82</v>
+      </c>
+      <c r="G1809" t="n">
+        <v>10107784</v>
+      </c>
+      <c r="H1809" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:8">
+      <c r="A1810" s="2" t="n">
+        <v>43383</v>
+      </c>
+      <c r="B1810" t="n">
+        <v>57.82</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>57.849998</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>50.200001</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>50.810001</v>
+      </c>
+      <c r="F1810" t="n">
+        <v>50.810001</v>
+      </c>
+      <c r="G1810" t="n">
+        <v>33178540</v>
+      </c>
+      <c r="H1810" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:8">
+      <c r="A1811" s="2" t="n">
+        <v>43384</v>
+      </c>
+      <c r="B1811" t="n">
+        <v>50.810001</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>53.68</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>50.439999</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>53.299999</v>
+      </c>
+      <c r="F1811" t="n">
+        <v>53.299999</v>
+      </c>
+      <c r="G1811" t="n">
+        <v>15424191</v>
+      </c>
+      <c r="H1811" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:8">
+      <c r="A1812" s="2" t="n">
+        <v>43385</v>
+      </c>
+      <c r="B1812" t="n">
+        <v>53.299999</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>54.299999</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>52.950001</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>53.419998</v>
+      </c>
+      <c r="F1812" t="n">
+        <v>53.419998</v>
+      </c>
+      <c r="G1812" t="n">
+        <v>8377524</v>
+      </c>
+      <c r="H1812" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:8">
+      <c r="A1813" s="2" t="n">
+        <v>43386</v>
+      </c>
+      <c r="B1813" t="n">
+        <v>53.419998</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>53.77</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>51.650002</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>51.939999</v>
+      </c>
+      <c r="F1813" t="n">
+        <v>51.939999</v>
+      </c>
+      <c r="G1813" t="n">
+        <v>9270241</v>
+      </c>
+      <c r="H1813" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:8">
+      <c r="A1814" s="2" t="n">
+        <v>43387</v>
+      </c>
+      <c r="B1814" t="n">
+        <v>51.939999</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>58.549999</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>51.59</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>54.68</v>
+      </c>
+      <c r="F1814" t="n">
+        <v>54.68</v>
+      </c>
+      <c r="G1814" t="n">
+        <v>38556427</v>
+      </c>
+      <c r="H1814" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:8">
+      <c r="A1815" s="2" t="n">
+        <v>43388</v>
+      </c>
+      <c r="B1815" t="n">
+        <v>54.68</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>55.490002</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>53.279999</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>53.900002</v>
+      </c>
+      <c r="F1815" t="n">
+        <v>53.900002</v>
+      </c>
+      <c r="G1815" t="n">
+        <v>11032317</v>
+      </c>
+      <c r="H1815" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:8">
+      <c r="A1816" s="2" t="n">
+        <v>43389</v>
+      </c>
+      <c r="B1816" t="n">
+        <v>53.900002</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>53.93</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>52.939999</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>53.669998</v>
+      </c>
+      <c r="F1816" t="n">
+        <v>53.669998</v>
+      </c>
+      <c r="G1816" t="n">
+        <v>9685583</v>
+      </c>
+      <c r="H1816" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:8">
+      <c r="A1817" s="2" t="n">
+        <v>43390</v>
+      </c>
+      <c r="B1817" t="n">
+        <v>53.669998</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>54.259998</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>51.790001</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>52.349998</v>
+      </c>
+      <c r="F1817" t="n">
+        <v>52.349998</v>
+      </c>
+      <c r="G1817" t="n">
+        <v>8603917</v>
+      </c>
+      <c r="H1817" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:8">
+      <c r="A1818" s="2" t="n">
+        <v>43391</v>
+      </c>
+      <c r="B1818" t="n">
+        <v>52.349998</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>53.619999</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>51.93</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>52.810001</v>
+      </c>
+      <c r="F1818" t="n">
+        <v>52.810001</v>
+      </c>
+      <c r="G1818" t="n">
+        <v>7968796</v>
+      </c>
+      <c r="H1818" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:8">
+      <c r="A1819" s="2" t="n">
+        <v>43393</v>
+      </c>
+      <c r="B1819" t="n">
+        <v>52.849998</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>53.389999</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>52.43</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>53.029999</v>
+      </c>
+      <c r="F1819" t="n">
+        <v>53.029999</v>
+      </c>
+      <c r="G1819" t="n">
+        <v>2482803</v>
+      </c>
+      <c r="H1819" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Litecoin.xlsx
+++ b/Litecoin.xlsx
@@ -396,7 +396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1819"/>
+  <dimension ref="A1:H1820"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47674,27 +47674,53 @@
     </row>
     <row r="1819" spans="1:8">
       <c r="A1819" s="2" t="n">
-        <v>43393</v>
+        <v>43392</v>
       </c>
       <c r="B1819" t="n">
-        <v>52.849998</v>
+        <v>52.810001</v>
       </c>
       <c r="C1819" t="n">
-        <v>53.389999</v>
+        <v>53.450001</v>
       </c>
       <c r="D1819" t="n">
         <v>52.43</v>
       </c>
       <c r="E1819" t="n">
-        <v>53.029999</v>
+        <v>53.310001</v>
       </c>
       <c r="F1819" t="n">
-        <v>53.029999</v>
+        <v>53.310001</v>
       </c>
       <c r="G1819" t="n">
-        <v>2482803</v>
+        <v>4957710</v>
       </c>
       <c r="H1819" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:8">
+      <c r="A1820" s="2" t="n">
+        <v>43394</v>
+      </c>
+      <c r="B1820" t="n">
+        <v>53.310001</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>53.759998</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>52.900002</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>53.310001</v>
+      </c>
+      <c r="F1820" t="n">
+        <v>53.310001</v>
+      </c>
+      <c r="G1820" t="n">
+        <v>2328455</v>
+      </c>
+      <c r="H1820" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Litecoin.xlsx
+++ b/Litecoin.xlsx
@@ -396,7 +396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1820"/>
+  <dimension ref="A1:H1825"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47700,7 +47700,7 @@
     </row>
     <row r="1820" spans="1:8">
       <c r="A1820" s="2" t="n">
-        <v>43394</v>
+        <v>43393</v>
       </c>
       <c r="B1820" t="n">
         <v>53.310001</v>
@@ -47709,18 +47709,148 @@
         <v>53.759998</v>
       </c>
       <c r="D1820" t="n">
-        <v>52.900002</v>
+        <v>52.580002</v>
       </c>
       <c r="E1820" t="n">
-        <v>53.310001</v>
+        <v>52.759998</v>
       </c>
       <c r="F1820" t="n">
-        <v>53.310001</v>
+        <v>52.759998</v>
       </c>
       <c r="G1820" t="n">
-        <v>2328455</v>
+        <v>5265483</v>
       </c>
       <c r="H1820" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:8">
+      <c r="A1821" s="2" t="n">
+        <v>43394</v>
+      </c>
+      <c r="B1821" t="n">
+        <v>52.759998</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>53.080002</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>51.93</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>52.119999</v>
+      </c>
+      <c r="F1821" t="n">
+        <v>52.119999</v>
+      </c>
+      <c r="G1821" t="n">
+        <v>6863650</v>
+      </c>
+      <c r="H1821" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:8">
+      <c r="A1822" s="2" t="n">
+        <v>43395</v>
+      </c>
+      <c r="B1822" t="n">
+        <v>52.119999</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>53.099998</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>51.849998</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>52.599998</v>
+      </c>
+      <c r="F1822" t="n">
+        <v>52.599998</v>
+      </c>
+      <c r="G1822" t="n">
+        <v>7162957</v>
+      </c>
+      <c r="H1822" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:8">
+      <c r="A1823" s="2" t="n">
+        <v>43396</v>
+      </c>
+      <c r="B1823" t="n">
+        <v>52.599998</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>53.080002</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>52</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>52.27</v>
+      </c>
+      <c r="F1823" t="n">
+        <v>52.27</v>
+      </c>
+      <c r="G1823" t="n">
+        <v>5846770</v>
+      </c>
+      <c r="H1823" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:8">
+      <c r="A1824" s="2" t="n">
+        <v>43397</v>
+      </c>
+      <c r="B1824" t="n">
+        <v>52.27</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>53.02</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>51.959999</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>52.169998</v>
+      </c>
+      <c r="F1824" t="n">
+        <v>52.169998</v>
+      </c>
+      <c r="G1824" t="n">
+        <v>4499207</v>
+      </c>
+      <c r="H1824" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:8">
+      <c r="A1825" s="2" t="n">
+        <v>43399</v>
+      </c>
+      <c r="B1825" t="n">
+        <v>52.169998</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>52.869999</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>51.619999</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>52.189999</v>
+      </c>
+      <c r="F1825" t="n">
+        <v>52.189999</v>
+      </c>
+      <c r="G1825" t="n">
+        <v>7187621</v>
+      </c>
+      <c r="H1825" t="s">
         <v>8</v>
       </c>
     </row>
